--- a/biology/Botanique/Gloire_Lyonnaise/Gloire_Lyonnaise.xlsx
+++ b/biology/Botanique/Gloire_Lyonnaise/Gloire_Lyonnaise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Gloire Lyonnaise' est un cultivar de rosier obtenu en 1884 par le fameux obtenteur lyonnais Jean-Baptiste Guillot. Il serait issu d'un croisement 'Baronne A. de Rothschild' x 'Madame Falcot'[1],[2]. Il est toujours disponible dans les catalogues.
+'Gloire Lyonnaise' est un cultivar de rosier obtenu en 1884 par le fameux obtenteur lyonnais Jean-Baptiste Guillot. Il serait issu d'un croisement 'Baronne A. de Rothschild' x 'Madame Falcot',. Il est toujours disponible dans les catalogues.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce rosier hybride remontant[3] présente un buisson peu élevé très vigoureux et florifère exhibant des fleurs blanc crème (presque jaune pâle au cœur)[4] semi-doubles à doubles sur de longs pédoncules. Le bois est vert brunâtre et peu épineux[2],[5]. Il nécessite un emplacement ensoleillé. Il éclaire les plantes-bandes et peut être cultivé en pot[6].
-Cette variété était fort prisée à la Belle Époque dans toute l'Europe et aux États-Unis. L'homme de lettres et dramaturge russe Anton Tchekhov, grand amateur de roses, en possédait dans le jardin de sa villa de Yalta en Crimée[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce rosier hybride remontant présente un buisson peu élevé très vigoureux et florifère exhibant des fleurs blanc crème (presque jaune pâle au cœur) semi-doubles à doubles sur de longs pédoncules. Le bois est vert brunâtre et peu épineux,. Il nécessite un emplacement ensoleillé. Il éclaire les plantes-bandes et peut être cultivé en pot.
+Cette variété était fort prisée à la Belle Époque dans toute l'Europe et aux États-Unis. L'homme de lettres et dramaturge russe Anton Tchekhov, grand amateur de roses, en possédait dans le jardin de sa villa de Yalta en Crimée.
 On peut l'admirer notamment à l'Europa-Rosarium de Sangerhausen et à la roseraie du Val-de-Marne de L'Haÿ-les-Roses.
 			Rose 'Gloire Lyonnaise' à Sangerhausen
 			Rose épanouie
